--- a/KẾ TOÁN - THÁI HẰNG/CÔNG NỢ/HẢI VUI/THeo dõi công nợ Hải Vui.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/CÔNG NỢ/HẢI VUI/THeo dõi công nợ Hải Vui.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="42">
   <si>
     <t>Tên Sản phẩm</t>
   </si>
@@ -132,13 +132,19 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>1 thùng</t>
-  </si>
-  <si>
-    <t>2 thùng</t>
-  </si>
-  <si>
-    <t>6 thùng</t>
+    <t xml:space="preserve">Hàng Hải Vui trả về </t>
+  </si>
+  <si>
+    <t>Tổng hàng cần mang về kho</t>
+  </si>
+  <si>
+    <t>Thực tế hàng mang về</t>
+  </si>
+  <si>
+    <t>Chênh lệch</t>
+  </si>
+  <si>
+    <t>Hàng mẫu Anh Lâm</t>
   </si>
 </sst>
 </file>
@@ -149,7 +155,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -179,14 +185,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="14"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
@@ -200,27 +198,47 @@
       <family val="1"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
     <font>
       <b/>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
+      <sz val="13"/>
       <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -233,8 +251,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -354,80 +378,141 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -709,388 +794,556 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A9:I24"/>
+  <dimension ref="A9:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" customWidth="1"/>
-    <col min="7" max="7" width="9.85546875" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="9.85546875" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="13.5703125" customWidth="1"/>
+    <col min="11" max="11" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="8" t="s">
+      <c r="E9" s="7"/>
+      <c r="F9" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="G9" s="9"/>
-      <c r="H9" s="11" t="s">
+      <c r="G9" s="5"/>
+      <c r="H9" s="25" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="6" t="s">
+      <c r="I9" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="J9" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="K9" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="L9" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="M9" s="36" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="7"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="G10" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="H10" s="12"/>
-    </row>
-    <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="H10" s="26"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="41"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="33"/>
+      <c r="M10" s="36"/>
+    </row>
+    <row r="11" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="14" t="s">
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="G11" s="21"/>
+      <c r="G11" s="14"/>
       <c r="H11" s="15"/>
-    </row>
-    <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="31"/>
+      <c r="L11" s="31"/>
+      <c r="M11" s="37"/>
+    </row>
+    <row r="12" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="16">
+      <c r="D12" s="18">
         <v>72</v>
       </c>
-      <c r="E12" s="16">
-        <v>12</v>
-      </c>
-      <c r="F12" s="16">
+      <c r="E12" s="18">
+        <v>12</v>
+      </c>
+      <c r="F12" s="18">
         <v>60</v>
       </c>
-      <c r="G12" s="20">
-        <v>12</v>
-      </c>
-      <c r="H12" s="23">
+      <c r="G12" s="19">
+        <v>12</v>
+      </c>
+      <c r="H12" s="27">
         <f>D12+E12-F12-G12</f>
         <v>12</v>
       </c>
-      <c r="I12" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+      <c r="I12" s="20"/>
+      <c r="J12" s="20">
+        <v>1</v>
+      </c>
+      <c r="K12" s="32">
+        <f>H12+I12-J12</f>
+        <v>11</v>
+      </c>
+      <c r="L12" s="32">
         <v>9</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="M12" s="38">
+        <f>L12-K12</f>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="23"/>
-    </row>
-    <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="32"/>
+      <c r="L13" s="32"/>
+      <c r="M13" s="38"/>
+    </row>
+    <row r="14" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="4" t="s">
+      <c r="B14" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="16">
+      <c r="D14" s="18">
         <v>60</v>
       </c>
-      <c r="E14" s="16">
-        <v>12</v>
-      </c>
-      <c r="F14" s="16">
+      <c r="E14" s="18">
+        <v>12</v>
+      </c>
+      <c r="F14" s="18">
         <v>36</v>
       </c>
-      <c r="G14" s="20">
-        <v>12</v>
-      </c>
-      <c r="H14" s="23">
-        <f t="shared" ref="H13:H23" si="0">D14+E14-F14-G14</f>
+      <c r="G14" s="19">
+        <v>12</v>
+      </c>
+      <c r="H14" s="27">
+        <f t="shared" ref="H14:H21" si="0">D14+E14-F14-G14</f>
         <v>24</v>
       </c>
-      <c r="I14" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
+      <c r="I14" s="20"/>
+      <c r="J14" s="20">
+        <v>1</v>
+      </c>
+      <c r="K14" s="32">
+        <f t="shared" ref="K13:K23" si="1">H14+I14-J14</f>
+        <v>23</v>
+      </c>
+      <c r="L14" s="32">
+        <v>17</v>
+      </c>
+      <c r="M14" s="38">
+        <f>L14-K14</f>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="23"/>
-    </row>
-    <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="32"/>
+      <c r="L15" s="32"/>
+      <c r="M15" s="38"/>
+    </row>
+    <row r="16" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="16">
+      <c r="D16" s="18">
         <v>48</v>
       </c>
-      <c r="E16" s="16">
-        <v>12</v>
-      </c>
-      <c r="F16" s="16">
+      <c r="E16" s="18">
+        <v>12</v>
+      </c>
+      <c r="F16" s="18">
         <v>36</v>
       </c>
-      <c r="G16" s="20">
-        <v>12</v>
-      </c>
-      <c r="H16" s="23">
+      <c r="G16" s="19">
+        <v>12</v>
+      </c>
+      <c r="H16" s="27">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="I16" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
+      <c r="I16" s="20"/>
+      <c r="J16" s="20">
+        <v>1</v>
+      </c>
+      <c r="K16" s="32">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="L16" s="32">
+        <v>10</v>
+      </c>
+      <c r="M16" s="38">
+        <f>L16-K16</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="23"/>
-    </row>
-    <row r="18" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="32"/>
+      <c r="L17" s="32"/>
+      <c r="M17" s="38"/>
+    </row>
+    <row r="18" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="16">
+      <c r="D18" s="18">
         <v>60</v>
       </c>
-      <c r="E18" s="16">
-        <v>12</v>
-      </c>
-      <c r="F18" s="16">
+      <c r="E18" s="18">
+        <v>12</v>
+      </c>
+      <c r="F18" s="18">
         <v>48</v>
       </c>
-      <c r="G18" s="20">
-        <v>12</v>
-      </c>
-      <c r="H18" s="23">
+      <c r="G18" s="19">
+        <v>12</v>
+      </c>
+      <c r="H18" s="27">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="I18" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
+      <c r="I18" s="21">
+        <v>12</v>
+      </c>
+      <c r="J18" s="21">
+        <v>1</v>
+      </c>
+      <c r="K18" s="32">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="L18" s="34">
+        <v>20</v>
+      </c>
+      <c r="M18" s="38">
+        <f>L18-K18</f>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="23"/>
-    </row>
-    <row r="20" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="32"/>
+      <c r="L19" s="32"/>
+      <c r="M19" s="38"/>
+    </row>
+    <row r="20" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="D20" s="16">
+      <c r="D20" s="18">
         <v>24</v>
       </c>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16">
+      <c r="E20" s="18"/>
+      <c r="F20" s="18">
         <v>24</v>
       </c>
-      <c r="G20" s="20"/>
-      <c r="H20" s="23"/>
-    </row>
-    <row r="21" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
+      <c r="G20" s="19"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="20">
+        <v>12</v>
+      </c>
+      <c r="J20" s="20">
+        <v>1</v>
+      </c>
+      <c r="K20" s="32">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="L20" s="32">
+        <v>11</v>
+      </c>
+      <c r="M20" s="38">
+        <f>L20-K20</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="D21" s="16">
+      <c r="D21" s="18">
         <v>72</v>
       </c>
-      <c r="E21" s="16">
-        <v>12</v>
-      </c>
-      <c r="F21" s="16">
+      <c r="E21" s="18">
+        <v>12</v>
+      </c>
+      <c r="F21" s="18">
         <v>60</v>
       </c>
-      <c r="G21" s="20">
-        <v>12</v>
-      </c>
-      <c r="H21" s="23">
+      <c r="G21" s="19">
+        <v>12</v>
+      </c>
+      <c r="H21" s="27">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="I21" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
+      <c r="I21" s="21">
+        <v>8</v>
+      </c>
+      <c r="J21" s="21">
+        <v>1</v>
+      </c>
+      <c r="K21" s="32">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="L21" s="34">
+        <v>18</v>
+      </c>
+      <c r="M21" s="38">
+        <f>L21-K21</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="D22" s="16">
+      <c r="D22" s="18">
         <v>36</v>
       </c>
-      <c r="E22" s="16">
-        <v>12</v>
-      </c>
-      <c r="F22" s="16">
+      <c r="E22" s="18">
+        <v>12</v>
+      </c>
+      <c r="F22" s="18">
         <v>48</v>
       </c>
-      <c r="G22" s="20"/>
-      <c r="H22" s="23"/>
-    </row>
-    <row r="23" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
+      <c r="G22" s="19"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="21">
+        <v>12</v>
+      </c>
+      <c r="J22" s="21">
+        <v>1</v>
+      </c>
+      <c r="K22" s="32">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="L22" s="32">
+        <v>10</v>
+      </c>
+      <c r="M22" s="38">
+        <f>L22-K22</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="D23" s="17">
+      <c r="D23" s="23">
         <v>72</v>
       </c>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17">
+      <c r="E23" s="23"/>
+      <c r="F23" s="23">
         <v>72</v>
       </c>
-      <c r="G23" s="22"/>
-      <c r="H23" s="24"/>
-    </row>
-    <row r="24" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A24" s="10" t="s">
+      <c r="G23" s="24"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="23"/>
+      <c r="K23" s="32"/>
+      <c r="L23" s="35"/>
+      <c r="M23" s="39"/>
+    </row>
+    <row r="24" spans="1:13" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A24" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="18">
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="3">
         <f>SUM(D11:D23)</f>
         <v>444</v>
       </c>
-      <c r="E24" s="18">
-        <f t="shared" ref="E24:H24" si="1">SUM(E11:E23)</f>
+      <c r="E24" s="3">
+        <f t="shared" ref="E24:M24" si="2">SUM(E11:E23)</f>
         <v>72</v>
       </c>
-      <c r="F24" s="18">
-        <f t="shared" si="1"/>
+      <c r="F24" s="3">
+        <f t="shared" si="2"/>
         <v>384</v>
       </c>
-      <c r="G24" s="18">
-        <f t="shared" si="1"/>
+      <c r="G24" s="3">
+        <f t="shared" si="2"/>
         <v>60</v>
       </c>
-      <c r="H24" s="19">
-        <f t="shared" si="1"/>
+      <c r="H24" s="10">
+        <f t="shared" si="2"/>
         <v>72</v>
       </c>
-      <c r="I24" s="25" t="s">
-        <v>39</v>
+      <c r="I24" s="10">
+        <f t="shared" si="2"/>
+        <v>44</v>
+      </c>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10">
+        <f t="shared" si="2"/>
+        <v>109</v>
+      </c>
+      <c r="L24" s="10">
+        <f t="shared" si="2"/>
+        <v>95</v>
+      </c>
+      <c r="M24" s="10">
+        <f t="shared" si="2"/>
+        <v>-14</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="12">
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="J9:J10"/>
     <mergeCell ref="H9:H10"/>
     <mergeCell ref="F9:G9"/>
     <mergeCell ref="A24:C24"/>
